--- a/tno/quantum/problems/portfolio_optimization/datasets/benchmark_dataset.xlsx
+++ b/tno/quantum/problems/portfolio_optimization/datasets/benchmark_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wezemanrs\Desktop\projects\Quantum-projects\QuantumToolbox\PROBLEMS\portfolio-optimization\tno\quantum\problems\portfolio_optimization\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB0D341-989D-42F3-9BC3-525701FD90BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F40829-2A5E-4BFB-A520-95F81499048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28035" yWindow="3150" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25995" yWindow="1035" windowWidth="28200" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,8 +262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +553,8 @@
   <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,8 +563,9 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="35.81640625" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.81640625" customWidth="1"/>
     <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
@@ -609,11 +610,11 @@
       <c r="D2">
         <v>19</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.1</v>
+      <c r="E2" s="4">
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -621,7 +622,7 @@
       <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="1"/>
       <c r="M2" s="1"/>
       <c r="Q2" s="1"/>
@@ -640,11 +641,11 @@
       <c r="D3">
         <v>528</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.8</v>
+      <c r="E3" s="4">
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>0.6080000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="G3" s="1">
         <v>70</v>
@@ -652,7 +653,7 @@
       <c r="H3" s="1">
         <v>40</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
       <c r="Q3" s="1"/>
@@ -671,11 +672,11 @@
       <c r="D4">
         <v>28</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.3</v>
+      <c r="E4" s="4">
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>0.22799999999999998</v>
+        <v>22.8</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -683,7 +684,7 @@
       <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
       <c r="Q4" s="1"/>
@@ -702,11 +703,11 @@
       <c r="D5">
         <v>1410</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.05</v>
+      <c r="E5" s="4">
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -714,7 +715,7 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="1"/>
       <c r="M5" s="1"/>
       <c r="Q5" s="1"/>
@@ -733,11 +734,11 @@
       <c r="D6">
         <v>74</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.05</v>
+      <c r="E6" s="4">
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -745,7 +746,7 @@
       <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="1"/>
       <c r="M6" s="1"/>
       <c r="Q6" s="1"/>
@@ -763,11 +764,11 @@
       <c r="D7">
         <v>397</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.4</v>
+      <c r="E7" s="4">
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.30400000000000005</v>
+        <v>30.4</v>
       </c>
       <c r="G7" s="1">
         <v>40</v>
@@ -775,7 +776,7 @@
       <c r="H7" s="1">
         <v>20</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="1"/>
       <c r="M7" s="1"/>
       <c r="Q7" s="1"/>
@@ -793,11 +794,11 @@
       <c r="D8">
         <v>14</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.1</v>
+      <c r="E8" s="4">
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -805,7 +806,7 @@
       <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="1"/>
       <c r="M8" s="1"/>
       <c r="Q8" s="1"/>
@@ -823,11 +824,11 @@
       <c r="D9">
         <v>1353</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.3</v>
+      <c r="E9" s="4">
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>0.22799999999999998</v>
+        <v>22.8</v>
       </c>
       <c r="G9" s="1">
         <v>150</v>
@@ -835,7 +836,7 @@
       <c r="H9" s="1">
         <v>80</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="1"/>
       <c r="M9" s="1"/>
       <c r="Q9" s="1"/>
@@ -853,11 +854,11 @@
       <c r="D10">
         <v>19</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.1</v>
+      <c r="E10" s="4">
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G10" s="1">
         <v>10</v>
@@ -865,7 +866,7 @@
       <c r="H10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="1"/>
       <c r="M10" s="1"/>
       <c r="Q10" s="1"/>
@@ -883,11 +884,11 @@
       <c r="D11">
         <v>3045</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.5</v>
+      <c r="E11" s="4">
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1">
         <v>50</v>
@@ -895,7 +896,7 @@
       <c r="H11" s="1">
         <v>30</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="1"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="1"/>
@@ -913,11 +914,11 @@
       <c r="D12">
         <v>110</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.2</v>
+      <c r="E12" s="4">
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>0.15200000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
@@ -925,7 +926,7 @@
       <c r="H12" s="1">
         <v>40</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="1"/>
@@ -943,11 +944,11 @@
       <c r="D13">
         <v>1705</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.4</v>
+      <c r="E13" s="4">
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>0.30400000000000005</v>
+        <v>30.4</v>
       </c>
       <c r="G13" s="1">
         <v>60</v>
@@ -955,7 +956,7 @@
       <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="1"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="1"/>
@@ -973,11 +974,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>0.1</v>
+      <c r="E14" s="4">
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G14" s="1">
         <v>10</v>
@@ -985,7 +986,7 @@
       <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="1"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1003,11 +1004,11 @@
       <c r="D15">
         <v>35</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.1</v>
+      <c r="E15" s="4">
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
@@ -1015,7 +1016,7 @@
       <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="1"/>
       <c r="M15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1033,11 +1034,11 @@
       <c r="D16">
         <v>1693</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.6</v>
+      <c r="E16" s="4">
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>0.45599999999999996</v>
+        <v>45.6</v>
       </c>
       <c r="G16" s="1">
         <v>30</v>
@@ -1045,7 +1046,7 @@
       <c r="H16" s="1">
         <v>40</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="1"/>
       <c r="M16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1063,11 +1064,11 @@
       <c r="D17">
         <v>18</v>
       </c>
-      <c r="E17" s="3">
-        <v>0.8</v>
+      <c r="E17" s="4">
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>0.6080000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="G17" s="1">
         <v>10</v>
@@ -1075,7 +1076,7 @@
       <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="1"/>
       <c r="M17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1093,11 +1094,11 @@
       <c r="D18">
         <v>1104</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.05</v>
+      <c r="E18" s="4">
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G18" s="1">
         <v>20</v>
@@ -1105,7 +1106,7 @@
       <c r="H18" s="1">
         <v>30</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="M18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1123,11 +1124,11 @@
       <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19" s="3">
-        <v>0.05</v>
+      <c r="E19" s="4">
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G19" s="1">
         <v>50</v>
@@ -1135,7 +1136,7 @@
       <c r="H19" s="1">
         <v>70</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1153,11 +1154,11 @@
       <c r="D20">
         <v>1260</v>
       </c>
-      <c r="E20" s="3">
-        <v>0.4</v>
+      <c r="E20" s="4">
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>0.30400000000000005</v>
+        <v>30.4</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -1165,7 +1166,7 @@
       <c r="H20" s="1">
         <v>80</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="1"/>
       <c r="M20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1183,11 +1184,11 @@
       <c r="D21">
         <v>96</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.1</v>
+      <c r="E21" s="4">
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -1195,7 +1196,7 @@
       <c r="H21" s="1">
         <v>10</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="1"/>
       <c r="M21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1213,11 +1214,11 @@
       <c r="D22">
         <v>531</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.3</v>
+      <c r="E22" s="4">
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>0.22799999999999998</v>
+        <v>22.8</v>
       </c>
       <c r="G22" s="1">
         <v>20</v>
@@ -1225,7 +1226,7 @@
       <c r="H22" s="1">
         <v>80</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="1"/>
       <c r="M22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1243,11 +1244,11 @@
       <c r="D23">
         <v>295</v>
       </c>
-      <c r="E23" s="3">
-        <v>0.1</v>
+      <c r="E23" s="4">
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G23" s="1">
         <v>30</v>
@@ -1255,7 +1256,7 @@
       <c r="H23" s="1">
         <v>15</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="1"/>
       <c r="M23" s="1"/>
       <c r="Q23" s="2"/>
@@ -1274,11 +1275,11 @@
       <c r="D24">
         <v>1752</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
+      <c r="E24" s="4">
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1">
         <v>150</v>
@@ -1286,7 +1287,7 @@
       <c r="H24" s="1">
         <v>100</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="1"/>
       <c r="M24" s="1"/>
     </row>
@@ -1303,11 +1304,11 @@
       <c r="D25">
         <v>455</v>
       </c>
-      <c r="E25" s="3">
-        <v>0.2</v>
+      <c r="E25" s="4">
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>0.15200000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="G25" s="1">
         <v>50</v>
@@ -1315,7 +1316,7 @@
       <c r="H25" s="1">
         <v>40</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="1"/>
       <c r="M25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1334,11 +1335,11 @@
       <c r="D26">
         <v>1578</v>
       </c>
-      <c r="E26" s="3">
-        <v>0.5</v>
+      <c r="E26" s="4">
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1">
         <v>70</v>
@@ -1346,7 +1347,7 @@
       <c r="H26" s="1">
         <v>100</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="1"/>
       <c r="M26" s="1"/>
     </row>
@@ -1363,11 +1364,11 @@
       <c r="D27">
         <v>176</v>
       </c>
-      <c r="E27" s="3">
-        <v>0.1</v>
+      <c r="E27" s="4">
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G27" s="1">
         <v>10</v>
@@ -1375,7 +1376,7 @@
       <c r="H27" s="1">
         <v>5</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="1"/>
       <c r="M27" s="1"/>
     </row>
@@ -1392,11 +1393,11 @@
       <c r="D28">
         <v>219</v>
       </c>
-      <c r="E28" s="3">
-        <v>0.1</v>
+      <c r="E28" s="4">
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G28" s="1">
         <v>10</v>
@@ -1404,7 +1405,7 @@
       <c r="H28" s="1">
         <v>5</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -1421,11 +1422,11 @@
       <c r="D29">
         <v>2117</v>
       </c>
-      <c r="E29" s="3">
-        <v>2.2000000000000002</v>
+      <c r="E29" s="4">
+        <v>220.00000000000003</v>
       </c>
       <c r="F29">
-        <v>1.6720000000000002</v>
+        <v>167.20000000000002</v>
       </c>
       <c r="G29" s="1">
         <v>30</v>
@@ -1433,7 +1434,7 @@
       <c r="H29" s="1">
         <v>40</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="1"/>
       <c r="M29" s="1"/>
       <c r="S29" s="2"/>
@@ -1452,11 +1453,11 @@
       <c r="D30">
         <v>227</v>
       </c>
-      <c r="E30" s="3">
-        <v>0.7</v>
+      <c r="E30" s="4">
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>0.53199999999999992</v>
+        <v>53.2</v>
       </c>
       <c r="G30" s="1">
         <v>60</v>
@@ -1464,7 +1465,7 @@
       <c r="H30" s="1">
         <v>40</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="1"/>
       <c r="M30" s="1"/>
     </row>
@@ -1481,11 +1482,11 @@
       <c r="D31">
         <v>881</v>
       </c>
-      <c r="E31" s="3">
-        <v>0.05</v>
+      <c r="E31" s="4">
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G31" s="1">
         <v>180</v>
@@ -1493,7 +1494,7 @@
       <c r="H31" s="1">
         <v>200</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="1"/>
       <c r="M31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1511,11 +1512,11 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="3">
-        <v>0.05</v>
+      <c r="E32" s="4">
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G32" s="1">
         <v>10</v>
@@ -1523,7 +1524,7 @@
       <c r="H32" s="1">
         <v>5</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="1"/>
       <c r="M32" s="1"/>
       <c r="Q32" s="1"/>
@@ -1541,11 +1542,11 @@
       <c r="D33">
         <v>1693</v>
       </c>
-      <c r="E33" s="3">
-        <v>0.5</v>
+      <c r="E33" s="4">
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -1553,7 +1554,7 @@
       <c r="H33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="1"/>
       <c r="M33" s="1"/>
       <c r="Q33" s="1"/>
@@ -1571,11 +1572,11 @@
       <c r="D34">
         <v>473</v>
       </c>
-      <c r="E34" s="3">
-        <v>0.1</v>
+      <c r="E34" s="4">
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G34" s="1">
         <v>20</v>
@@ -1583,7 +1584,7 @@
       <c r="H34" s="1">
         <v>10</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="1"/>
       <c r="M34" s="1"/>
       <c r="Q34" s="1"/>
@@ -1601,11 +1602,11 @@
       <c r="D35">
         <v>1390</v>
       </c>
-      <c r="E35" s="3">
-        <v>0.3</v>
+      <c r="E35" s="4">
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>0.22799999999999998</v>
+        <v>22.8</v>
       </c>
       <c r="G35" s="1">
         <v>50</v>
@@ -1613,7 +1614,7 @@
       <c r="H35" s="1">
         <v>80</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="1"/>
       <c r="M35" s="1"/>
       <c r="Q35" s="1"/>
@@ -1631,11 +1632,11 @@
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="E36" s="3">
-        <v>0.1</v>
+      <c r="E36" s="4">
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -1643,7 +1644,7 @@
       <c r="H36" s="1">
         <v>3</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="M36" s="1"/>
       <c r="Q36" s="1"/>
@@ -1661,11 +1662,11 @@
       <c r="D37">
         <v>1302</v>
       </c>
-      <c r="E37" s="3">
-        <v>1.5</v>
+      <c r="E37" s="4">
+        <v>150</v>
       </c>
       <c r="F37">
-        <v>1.1400000000000001</v>
+        <v>114</v>
       </c>
       <c r="G37" s="1">
         <v>40</v>
@@ -1673,7 +1674,7 @@
       <c r="H37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="1"/>
       <c r="M37" s="1"/>
       <c r="Q37" s="1"/>
@@ -1692,11 +1693,11 @@
       <c r="D38">
         <v>317</v>
       </c>
-      <c r="E38" s="3">
-        <v>0.2</v>
+      <c r="E38" s="4">
+        <v>20</v>
       </c>
       <c r="F38">
-        <v>0.15200000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="G38" s="1">
         <v>20</v>
@@ -1704,7 +1705,7 @@
       <c r="H38" s="1">
         <v>40</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="1"/>
       <c r="M38" s="1"/>
       <c r="Q38" s="1"/>
@@ -1722,11 +1723,11 @@
       <c r="D39">
         <v>2209</v>
       </c>
-      <c r="E39" s="3">
-        <v>0.4</v>
+      <c r="E39" s="4">
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>0.30400000000000005</v>
+        <v>30.4</v>
       </c>
       <c r="G39" s="1">
         <v>50</v>
@@ -1734,7 +1735,7 @@
       <c r="H39" s="1">
         <v>60</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="1"/>
       <c r="M39" s="1"/>
       <c r="Q39" s="1"/>
@@ -1752,11 +1753,11 @@
       <c r="D40">
         <v>168</v>
       </c>
-      <c r="E40" s="3">
-        <v>0.1</v>
+      <c r="E40" s="4">
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G40" s="1">
         <v>30</v>
@@ -1764,7 +1765,7 @@
       <c r="H40" s="1">
         <v>20</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="1"/>
       <c r="M40" s="1"/>
       <c r="Q40" s="1"/>
@@ -1782,11 +1783,11 @@
       <c r="D41">
         <v>106</v>
       </c>
-      <c r="E41" s="3">
-        <v>0.1</v>
+      <c r="E41" s="4">
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -1794,7 +1795,7 @@
       <c r="H41" s="1">
         <v>5</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="M41" s="1"/>
       <c r="Q41" s="1"/>
@@ -1812,11 +1813,11 @@
       <c r="D42">
         <v>1015</v>
       </c>
-      <c r="E42" s="3">
-        <v>1.8</v>
+      <c r="E42" s="4">
+        <v>180</v>
       </c>
       <c r="F42">
-        <v>1.3680000000000001</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="G42" s="1">
         <v>110</v>
@@ -1824,7 +1825,7 @@
       <c r="H42" s="1">
         <v>40</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="M42" s="1"/>
       <c r="Q42" s="1"/>
@@ -1842,11 +1843,11 @@
       <c r="D43">
         <v>685</v>
       </c>
-      <c r="E43" s="3">
-        <v>0.5</v>
+      <c r="E43" s="4">
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="G43" s="1">
         <v>20</v>
@@ -1854,7 +1855,7 @@
       <c r="H43" s="1">
         <v>10</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="1"/>
       <c r="M43" s="1"/>
       <c r="Q43" s="1"/>
@@ -1872,11 +1873,11 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" s="3">
-        <v>0.05</v>
+      <c r="E44" s="4">
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G44" s="1">
         <v>10</v>
@@ -1884,7 +1885,7 @@
       <c r="H44" s="1">
         <v>5</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="M44" s="1"/>
       <c r="Q44" s="1"/>
@@ -1902,11 +1903,11 @@
       <c r="D45">
         <v>473</v>
       </c>
-      <c r="E45" s="3">
-        <v>0.05</v>
+      <c r="E45" s="4">
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>3.8000000000000006E-2</v>
+        <v>3.8</v>
       </c>
       <c r="G45" s="1">
         <v>5</v>
@@ -1914,7 +1915,7 @@
       <c r="H45" s="1">
         <v>5</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="1"/>
       <c r="M45" s="1"/>
       <c r="Q45" s="1"/>
@@ -1932,11 +1933,11 @@
       <c r="D46">
         <v>51</v>
       </c>
-      <c r="E46" s="3">
-        <v>0.4</v>
+      <c r="E46" s="4">
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>0.30400000000000005</v>
+        <v>30.4</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
@@ -1944,7 +1945,7 @@
       <c r="H46" s="1">
         <v>10</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="1"/>
       <c r="M46" s="1"/>
       <c r="Q46" s="1"/>
@@ -1962,11 +1963,11 @@
       <c r="D47">
         <v>26</v>
       </c>
-      <c r="E47" s="3">
-        <v>0.1</v>
+      <c r="E47" s="4">
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G47" s="1">
         <v>5</v>
@@ -1974,7 +1975,7 @@
       <c r="H47" s="1">
         <v>10</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="1"/>
       <c r="M47" s="1"/>
       <c r="Q47" s="1"/>
@@ -1992,11 +1993,11 @@
       <c r="D48">
         <v>1639</v>
       </c>
-      <c r="E48" s="3">
-        <v>0.3</v>
+      <c r="E48" s="4">
+        <v>30</v>
       </c>
       <c r="F48">
-        <v>0.22799999999999998</v>
+        <v>22.8</v>
       </c>
       <c r="G48" s="1">
         <v>130</v>
@@ -2004,7 +2005,7 @@
       <c r="H48" s="1">
         <v>80</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="1"/>
       <c r="M48" s="1"/>
       <c r="Q48" s="1"/>
@@ -2022,11 +2023,11 @@
       <c r="D49">
         <v>247</v>
       </c>
-      <c r="E49" s="3">
-        <v>0.1</v>
+      <c r="E49" s="4">
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G49" s="1">
         <v>80</v>
@@ -2034,7 +2035,7 @@
       <c r="H49" s="1">
         <v>50</v>
       </c>
-      <c r="J49" s="4"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="1"/>
       <c r="M49" s="1"/>
       <c r="Q49" s="1"/>
@@ -2052,11 +2053,11 @@
       <c r="D50">
         <v>118</v>
       </c>
-      <c r="E50" s="3">
-        <v>2.2999999999999998</v>
+      <c r="E50" s="4">
+        <v>229.99999999999997</v>
       </c>
       <c r="F50">
-        <v>1.7479999999999998</v>
+        <v>174.79999999999998</v>
       </c>
       <c r="G50" s="1">
         <v>20</v>
@@ -2064,7 +2065,7 @@
       <c r="H50" s="1">
         <v>30</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="1"/>
       <c r="M50" s="1"/>
       <c r="Q50" s="1"/>
@@ -2082,11 +2083,11 @@
       <c r="D51">
         <v>5</v>
       </c>
-      <c r="E51" s="3">
-        <v>0.2</v>
+      <c r="E51" s="4">
+        <v>20</v>
       </c>
       <c r="F51">
-        <v>0.15200000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="G51" s="1">
         <v>10</v>
@@ -2094,7 +2095,7 @@
       <c r="H51" s="1">
         <v>40</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="1"/>
       <c r="M51" s="1"/>
       <c r="Q51" s="1"/>
@@ -2112,11 +2113,11 @@
       <c r="D52">
         <v>1376</v>
       </c>
-      <c r="E52" s="3">
-        <v>0.4</v>
+      <c r="E52" s="4">
+        <v>40</v>
       </c>
       <c r="F52">
-        <v>0.30400000000000005</v>
+        <v>30.4</v>
       </c>
       <c r="G52" s="1">
         <v>20</v>
@@ -2124,7 +2125,7 @@
       <c r="H52" s="1">
         <v>30</v>
       </c>
-      <c r="J52" s="4"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="1"/>
       <c r="M52" s="1"/>
       <c r="Q52" s="1"/>
@@ -2142,11 +2143,11 @@
       <c r="D53">
         <v>776</v>
       </c>
-      <c r="E53" s="3">
-        <v>0.1</v>
+      <c r="E53" s="4">
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>7.6000000000000012E-2</v>
+        <v>7.6</v>
       </c>
       <c r="G53" s="1">
         <v>10</v>
@@ -2154,7 +2155,7 @@
       <c r="H53" s="1">
         <v>5</v>
       </c>
-      <c r="J53" s="4"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="1"/>
       <c r="M53" s="1"/>
       <c r="Q53" s="1"/>
@@ -2253,21 +2254,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C4ABA94203F5748B109EBB7A2B66A24" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14cb3232c46c11352faa6e192ede145">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="606bd0ba-55e6-434f-bf07-749f78accee2" xmlns:ns4="21f765a5-c597-45a3-897b-84f427d866ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84b2d4089f6effa903dbee879072b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="606bd0ba-55e6-434f-bf07-749f78accee2"/>
@@ -2496,24 +2482,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2163975D-6C90-4D2B-867A-E7435F56DE12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0865417-1B09-4DF2-BA06-A69EF24AD5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2530,4 +2514,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2163975D-6C90-4D2B-867A-E7435F56DE12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>